--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/67/word_level_predictions_67.xlsx
@@ -502,208 +502,208 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="b">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15062,106 +15062,106 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" t="n">
         <v>16</v>
       </c>
-      <c r="B282" s="2" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
+      <c r="D282" t="n">
         <v>0</v>
       </c>
-      <c r="E282" s="2" t="inlineStr">
+      <c r="E282" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F282" s="2" t="inlineStr">
+      <c r="F282" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G282" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L282" s="2" t="inlineStr">
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" t="n">
         <v>16</v>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E283" s="2" t="inlineStr">
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F283" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G283" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15218,210 +15218,210 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K285" t="b">
-        <v>1</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F285" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" t="n">
+      <c r="D286" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="E286" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="F286" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L286" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K286" t="b">
-        <v>1</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
+      <c r="F287" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>5</v>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K287" t="b">
-        <v>1</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>16</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="E288" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K288" t="b">
-        <v>1</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori4/67/word_level_predictions_67.xlsx
@@ -502,208 +502,208 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15062,106 +15062,106 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D282" t="n">
-        <v>0</v>
-      </c>
-      <c r="E282" t="inlineStr">
+      <c r="D282" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
+      <c r="F282" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I282" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K282" t="b">
-        <v>1</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D283" t="n">
-        <v>1</v>
-      </c>
-      <c r="E283" t="inlineStr">
+      <c r="D283" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I283" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K283" t="b">
-        <v>1</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -15218,210 +15218,210 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" t="n">
         <v>16</v>
       </c>
-      <c r="B285" s="2" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
+      <c r="D285" t="n">
         <v>3</v>
       </c>
-      <c r="E285" s="2" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L285" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G285" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" t="n">
         <v>16</v>
       </c>
-      <c r="B286" s="2" t="inlineStr">
+      <c r="B286" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" s="2" t="inlineStr">
+      <c r="C286" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" s="2" t="n">
+      <c r="D286" t="n">
         <v>4</v>
       </c>
-      <c r="E286" s="2" t="inlineStr">
+      <c r="E286" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L286" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G286" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K286" t="b">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" t="n">
         <v>16</v>
       </c>
-      <c r="B287" s="2" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" s="2" t="inlineStr">
+      <c r="C287" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
+      <c r="D287" t="n">
         <v>5</v>
       </c>
-      <c r="E287" s="2" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F287" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L287" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G287" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" t="n">
         <v>16</v>
       </c>
-      <c r="B288" s="2" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C288" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
+      <c r="D288" t="n">
         <v>6</v>
       </c>
-      <c r="E288" s="2" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L288" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
